--- a/mcmaster_excel/Metric_Steel_Pan_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Steel_Pan_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,7 +572,11 @@
           <t>$2.21</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -622,7 +634,11 @@
           <t>7.01</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -680,7 +696,11 @@
           <t>4.48</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -738,7 +758,11 @@
           <t>5.16</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -748,19 +772,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>90304A315</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -770,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -810,15 +874,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90304A315</t>
+          <t>90304A316</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -828,19 +896,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>3.1</t>
@@ -868,15 +936,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90304A316</t>
+          <t>90304A317</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -886,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,15 +998,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90304A317</t>
+          <t>90304A318</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -944,27 +1020,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -979,20 +1055,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90304A318</t>
+          <t>90304A319</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -1002,19 +1082,59 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>90304A321</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Black-Oxide Steel</t>
@@ -1024,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1034,17 +1154,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,30 +1179,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90304A319</t>
+          <t>90304A322</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Black-Oxide Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1092,17 +1216,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1117,42 +1241,86 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90304A321</t>
+          <t>90304A323</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Black-Oxide Steel</t>
+          <t>Zinc-Plated Steel</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>90304A324</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1162,19 +1330,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>1.6</t>
@@ -1202,15 +1370,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90304A322</t>
+          <t>90304A325</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1220,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1260,15 +1432,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90304A323</t>
+          <t>90304A326</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1278,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1288,12 +1464,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1318,15 +1494,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90304A324</t>
+          <t>90304A327</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1336,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1346,17 +1526,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1376,15 +1556,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90304A325</t>
+          <t>90304A328</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1394,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1404,17 +1588,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1434,15 +1618,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90304A326</t>
+          <t>90304A329</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1452,19 +1640,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>90304A331</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1474,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1494,7 +1722,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1514,15 +1742,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90304A327</t>
+          <t>90304A332</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1532,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1542,17 +1774,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1572,15 +1804,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90304A328</t>
+          <t>90304A333</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1590,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1600,17 +1836,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1630,15 +1866,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90304A329</t>
+          <t>90304A334</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.47</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1648,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1658,17 +1898,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1678,7 +1918,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1688,15 +1928,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90304A331</t>
+          <t>90304A211</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1706,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1716,17 +1960,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1736,7 +1980,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1746,15 +1990,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90304A332</t>
+          <t>90304A212</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1764,19 +2012,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 14583</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>90304A213</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1786,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1826,15 +2114,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90304A333</t>
+          <t>90304A335</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1844,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1884,15 +2176,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>90304A334</t>
+          <t>90304A336</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1902,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1932,7 +2228,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1942,15 +2238,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90304A211</t>
+          <t>90304A337</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1960,27 +2260,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2000,15 +2300,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90304A212</t>
+          <t>90304A214</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2018,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2028,17 +2332,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2058,15 +2362,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90304A213</t>
+          <t>90304A215</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2076,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2086,17 +2394,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2106,7 +2414,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2116,15 +2424,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>90304A335</t>
+          <t>90304A216</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2134,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2144,17 +2456,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2164,7 +2476,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2174,15 +2486,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>90304A336</t>
+          <t>90304A217</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2192,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2202,17 +2518,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2227,20 +2543,24 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>90304A337</t>
+          <t>90304A338</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2250,19 +2570,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>90304A339</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2272,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2302,25 +2662,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>90304A214</t>
+          <t>90304A341</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2340,17 +2704,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2370,15 +2734,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>90304A215</t>
+          <t>90304A218</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2398,17 +2766,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2428,15 +2796,19 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>90304A216</t>
+          <t>90304A219</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2456,17 +2828,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2486,15 +2858,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>90304A217</t>
+          <t>90304A221</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2504,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2514,17 +2890,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2534,25 +2910,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>90304A338</t>
+          <t>90304A222</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2562,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2572,17 +2952,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2602,15 +2982,19 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>90304A339</t>
+          <t>90304A342</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2620,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2630,17 +3014,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2660,15 +3044,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>90304A341</t>
+          <t>90304A343</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2678,19 +3066,59 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>90304A344</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2710,17 +3138,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2730,25 +3158,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>90304A218</t>
+          <t>90304A345</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2768,17 +3200,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2793,20 +3225,24 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>90304A219</t>
+          <t>90304A223</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2826,17 +3262,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2851,20 +3287,24 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>90304A221</t>
+          <t>90304A224</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2884,17 +3324,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2909,20 +3349,24 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>90304A222</t>
+          <t>90304A225</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2942,17 +3386,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2962,7 +3406,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>DIN 7985, ISO 14583</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2972,15 +3416,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>90304A342</t>
+          <t>90304A226</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3000,17 +3448,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3025,20 +3473,24 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>90304A343</t>
+          <t>90304A346</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>10.94</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3058,17 +3510,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3083,20 +3535,24 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>90304A344</t>
+          <t>90304A347</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>11.59</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3106,19 +3562,59 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>90304A348</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3128,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3163,20 +3659,24 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>90304A345</t>
+          <t>90304A349</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3196,17 +3696,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3216,25 +3716,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>90304A223</t>
+          <t>90304A351</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3254,17 +3758,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3274,25 +3778,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>90304A224</t>
+          <t>90304A352</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3312,17 +3820,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,25 +3840,29 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>90304A225</t>
+          <t>90304A131</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3370,17 +3882,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3390,25 +3902,29 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 14583</t>
+          <t>ISO 14583</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>90304A226</t>
+          <t>90304A132</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3428,17 +3944,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3453,20 +3969,24 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>90304A346</t>
+          <t>90304A353</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3486,17 +4006,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3511,20 +4031,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>90304A347</t>
+          <t>90304A354</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3544,17 +4068,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3569,507 +4093,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>90304A348</t>
+          <t>90304A355</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>90304A349</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>90304A351</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>90304A352</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>90304A131</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>15.96</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>90304A132</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>17.21</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>90304A353</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>90304A354</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>90304A355</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
